--- a/biology/Botanique/Robert_Laurent_(historien)/Robert_Laurent_(historien).xlsx
+++ b/biology/Botanique/Robert_Laurent_(historien)/Robert_Laurent_(historien).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Laurent, né le 10 septembre 1908 à Seclin et mort le 24 juin 2001 à Montpellier, est un historien français, formé par les maîtres de l'École des Annales (Lucien Febvre, Fernand Braudel), spécialiste de l'histoire économique rurale et des vignerons de la Côte d'Or.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né près de Lille, à Seclin le 10 septembre 1908, il est le neveu de l'historien Georges Lefebvre et du géographe Théodore Lefebvre.
 Étudiant à la faculté des lettres de Dijon, élève de Georges Chabot, il obtient la licence d'histoire et de géographie en 1930, puis un diplôme d'études supérieures sur L'Agriculture de la Côte d'Or au XIXe siècle (en 1931). Son travail est alors publié et cité en référence par Ernest Labrousse, Henri Sée et Marc Bloch. Agrégé d'histoire et de géographie en 1938, il est nommé au lycée de Nancy.
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Agriculture en Côte-d'Or pendant la première moitié du XIXe siècle, Dijon, Rebourseau, 1931.
 L'Octroi de Dijon au XIXe siècle, Paris, S.E.V.P.E.N., 1960.
